--- a/MOPSO_results/delay_average_results.xlsx
+++ b/MOPSO_results/delay_average_results.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C0501-6737-4D35-A53D-AC8FB0D98458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC6F72-D1F7-4DFE-8B4B-EE8E3E25523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" xr2:uid="{81DE8F05-528C-4F53-80C0-99D7668B1C25}"/>
+    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{81DE8F05-528C-4F53-80C0-99D7668B1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,15 +403,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BAF5B4-45EA-4FE7-90C9-6BB8C0A75CF0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>2.4481670375E-2</v>
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2398E8-A8BA-4E69-8324-F4D2A962C747}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.0765949095238096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.0754905142857142E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.080903933333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.0707899238095238E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3.0699413190476192E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52D5B80-DE5C-49AE-B9B0-F4AA7F3EA7E3}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AE6F0E-E494-4FE1-AF11-D574AC37CDE8}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025915AF-11BF-4AE8-8EF7-F3D23ADB7F7B}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58685CA7-42D7-4754-8F2A-7E330C705F54}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F6225-B1D3-4681-B0DB-27A1881C9734}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.0765949095238096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25012EA1-0ECB-4B01-87E3-FEB900C96849}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.0765949095238096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.0754905142857142E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16193D11-DCDD-4405-9ADE-4560525501A0}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.0765949095238096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.0754905142857142E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.080903933333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD46908-019F-427C-A118-5C32558892E7}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.1577890761904763E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2.9955575333333331E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.0756516714285718E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0852905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.0613723285714284E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.0765949095238096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.0754905142857142E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.080903933333333E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.0707899238095238E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MOPSO_results/delay_average_results.xlsx
+++ b/MOPSO_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC6F72-D1F7-4DFE-8B4B-EE8E3E25523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6B326-9746-4C54-898B-B25E832DA7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{81DE8F05-528C-4F53-80C0-99D7668B1C25}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.0765949095238096E-2</v>
+        <v>5.9061757809523809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.0754905142857142E-2</v>
+        <v>5.9570974857142855E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.080903933333333E-2</v>
+        <v>5.9261523857142853E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3.0707899238095238E-2</v>
+        <v>5.9734201333333334E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3.0699413190476192E-2</v>
+        <v>5.9396076047619047E-2</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.0765949095238096E-2</v>
+        <v>5.9061757809523809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.0765949095238096E-2</v>
+        <v>5.9061757809523809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.0754905142857142E-2</v>
+        <v>5.9570974857142855E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.0765949095238096E-2</v>
+        <v>5.9061757809523809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.0754905142857142E-2</v>
+        <v>5.9570974857142855E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.080903933333333E-2</v>
+        <v>5.9261523857142853E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>5.1577890761904763E-2</v>
+        <v>9.3298067476190474E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.9955575333333331E-2</v>
+        <v>6.0300918761904763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.0756516714285718E-2</v>
+        <v>6.0722598238095241E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.0852905E-2</v>
+        <v>5.9266763238095238E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.0613723285714284E-2</v>
+        <v>5.9073490809523808E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.0765949095238096E-2</v>
+        <v>5.9061757809523809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.0754905142857142E-2</v>
+        <v>5.9570974857142855E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.080903933333333E-2</v>
+        <v>5.9261523857142853E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3.0707899238095238E-2</v>
+        <v>5.9734201333333334E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/MOPSO_results/delay_average_results.xlsx
+++ b/MOPSO_results/delay_average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6B326-9746-4C54-898B-B25E832DA7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B8BEA-2B03-461A-95C2-D43503496983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{81DE8F05-528C-4F53-80C0-99D7668B1C25}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{F005B419-4BC4-4218-94F5-BCEE8CBEBE41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BAF5B4-45EA-4FE7-90C9-6BB8C0A75CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083FA7E1-0B2C-483C-9262-87E91F1A98CD}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5.8186454857142855E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67300E49-94C6-478E-B0A9-13D6C937F6AD}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -413,52 +477,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>6.234315766666667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>6.2049336809523813E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>6.2281753714285709E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0</v>
+        <v>6.2400894999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>6.1852218190476198E-2</v>
       </c>
     </row>
   </sheetData>
@@ -467,74 +531,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2398E8-A8BA-4E69-8324-F4D2A962C747}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>9.3298067476190474E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>6.0300918761904763E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6.0722598238095241E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5.9266763238095238E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5.9073490809523808E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5.9061757809523809E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5.9570974857142855E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5.9261523857142853E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5.9734201333333334E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5.9396076047619047E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52D5B80-DE5C-49AE-B9B0-F4AA7F3EA7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C37E793-122D-4E7F-A27C-D7B2BAA1B53E}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -545,12 +543,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -600,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AE6F0E-E494-4FE1-AF11-D574AC37CDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523007E-97DE-40F5-82D9-6C619155D300}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -666,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025915AF-11BF-4AE8-8EF7-F3D23ADB7F7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC666B21-C72A-4212-B2CB-E68A9AC9CBDC}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -677,22 +675,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -732,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58685CA7-42D7-4754-8F2A-7E330C705F54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B434A4D-A232-4D5E-9D4E-EB408365CCF2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -743,27 +741,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.9073490809523808E-2</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -798,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3F6225-B1D3-4681-B0DB-27A1881C9734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5714312-C64C-4EF4-92DB-EE87EA41728A}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -809,32 +807,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.9073490809523808E-2</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5.9061757809523809E-2</v>
+        <v>6.234315766666667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -864,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25012EA1-0ECB-4B01-87E3-FEB900C96849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F751C79B-6731-4459-96CE-17524506C466}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -875,37 +873,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.9073490809523808E-2</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5.9061757809523809E-2</v>
+        <v>6.234315766666667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5.9570974857142855E-2</v>
+        <v>6.2049336809523813E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -930,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16193D11-DCDD-4405-9ADE-4560525501A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D39086-4CA3-4168-9BF9-19A68BDDA40E}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -941,42 +939,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.9073490809523808E-2</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5.9061757809523809E-2</v>
+        <v>6.234315766666667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5.9570974857142855E-2</v>
+        <v>6.2049336809523813E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5.9261523857142853E-2</v>
+        <v>6.2281753714285709E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -996,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD46908-019F-427C-A118-5C32558892E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18119BA0-37B1-4C91-BDB5-1EF4BD7C5786}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1007,47 +1005,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9.3298067476190474E-2</v>
+        <v>6.2407023285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.0300918761904763E-2</v>
+        <v>6.2255354666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.0722598238095241E-2</v>
+        <v>6.2080003523809532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.9266763238095238E-2</v>
+        <v>6.2421077000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.9073490809523808E-2</v>
+        <v>6.2179699619047617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5.9061757809523809E-2</v>
+        <v>6.234315766666667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5.9570974857142855E-2</v>
+        <v>6.2049336809523813E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5.9261523857142853E-2</v>
+        <v>6.2281753714285709E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5.9734201333333334E-2</v>
+        <v>6.2400894999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/MOPSO_results/delay_average_results.xlsx
+++ b/MOPSO_results/delay_average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\MOPSO_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B8BEA-2B03-461A-95C2-D43503496983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C701E24-79F5-4639-B9FB-433C1849A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{F005B419-4BC4-4218-94F5-BCEE8CBEBE41}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{F005B419-4BC4-4218-94F5-BCEE8CBEBE41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,70 +405,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083FA7E1-0B2C-483C-9262-87E91F1A98CD}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>5.8186454857142855E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67300E49-94C6-478E-B0A9-13D6C937F6AD}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A10"/>
     </sheetView>
@@ -477,52 +413,118 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.234315766666667E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.2049336809523813E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.2281753714285709E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.2400894999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6.1852218190476198E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67300E49-94C6-478E-B0A9-13D6C937F6AD}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>4.7961783238095239E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4.8770400499999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5.4359904826086956E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5.7176847416666669E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.2218076640000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.2829924423076916E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.10524241088888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6.7648065107142857E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.7414932137931033E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.9108399166666667E-2</v>
       </c>
     </row>
   </sheetData>
@@ -543,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -609,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -675,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -741,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>6.2218076640000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -807,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>6.2218076640000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.234315766666667E-2</v>
+        <v>6.2829924423076916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -873,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>6.2218076640000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.234315766666667E-2</v>
+        <v>6.2829924423076916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.2049336809523813E-2</v>
+        <v>0.10524241088888889</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -939,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>6.2218076640000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.234315766666667E-2</v>
+        <v>6.2829924423076916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.2049336809523813E-2</v>
+        <v>0.10524241088888889</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.2281753714285709E-2</v>
+        <v>6.7648065107142857E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1005,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6.2407023285714285E-2</v>
+        <v>4.7961783238095239E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.2255354666666672E-2</v>
+        <v>4.8770400499999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.2080003523809532E-2</v>
+        <v>5.4359904826086956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2421077000000005E-2</v>
+        <v>5.7176847416666669E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2179699619047617E-2</v>
+        <v>6.2218076640000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.234315766666667E-2</v>
+        <v>6.2829924423076916E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.2049336809523813E-2</v>
+        <v>0.10524241088888889</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.2281753714285709E-2</v>
+        <v>6.7648065107142857E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.2400894999999998E-2</v>
+        <v>7.7414932137931033E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
